--- a/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
+++ b/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T07:50:24+00:00</t>
+    <t>2025-09-10T10:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
+++ b/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T10:00:26+00:00</t>
+    <t>2025-09-10T13:51:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
+++ b/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T13:51:57+00:00</t>
+    <t>2025-09-11T08:12:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
+++ b/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-11T08:12:08+00:00</t>
+    <t>2025-09-11T09:46:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
+++ b/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-11T09:46:41+00:00</t>
+    <t>2025-09-15T07:08:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
+++ b/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T07:08:09+00:00</t>
+    <t>2025-09-17T15:38:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
+++ b/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T15:38:22+00:00</t>
+    <t>2025-09-18T09:40:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
+++ b/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T09:40:01+00:00</t>
+    <t>2025-09-18T12:48:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
+++ b/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T12:48:58+00:00</t>
+    <t>2025-09-18T14:47:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
+++ b/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T14:47:30+00:00</t>
+    <t>2025-09-23T09:18:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
+++ b/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T09:18:22+00:00</t>
+    <t>2025-09-23T12:45:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
+++ b/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:45:16+00:00</t>
+    <t>2025-09-23T13:40:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
+++ b/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T13:40:00+00:00</t>
+    <t>2025-09-24T08:59:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
+++ b/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T08:59:11+00:00</t>
+    <t>2025-09-24T09:13:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
+++ b/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T09:13:07+00:00</t>
+    <t>2025-09-25T09:59:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
+++ b/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:59:00+00:00</t>
+    <t>2025-09-29T14:54:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
+++ b/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T14:54:43+00:00</t>
+    <t>2025-09-30T08:07:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
+++ b/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T08:07:48+00:00</t>
+    <t>2025-09-30T16:47:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
+++ b/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T16:47:22+00:00</t>
+    <t>2025-10-01T14:45:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
+++ b/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T14:45:31+00:00</t>
+    <t>2025-10-02T09:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
+++ b/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T09:38:01+00:00</t>
+    <t>2025-10-02T12:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
+++ b/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:26:13+00:00</t>
+    <t>2025-10-07T14:58:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
+++ b/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T14:58:06+00:00</t>
+    <t>2025-10-08T14:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
+++ b/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T14:59:36+00:00</t>
+    <t>2025-10-10T14:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
+++ b/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-10T14:52:44+00:00</t>
+    <t>2025-10-14T09:28:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
+++ b/298-Ajout-de-l'évènement/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-14T09:28:59+00:00</t>
+    <t>2025-10-15T10:12:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
